--- a/biology/Zoologie/Hydrobatidae/Hydrobatidae.xlsx
+++ b/biology/Zoologie/Hydrobatidae/Hydrobatidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Hydrobatidae (hydrobatidés en français) sont une famille d'oiseaux de mer qui comprend une quinzaine d'espèces vivantes de pétrels-tempête (de fortes tempêtes déplacent des individus jusqu'à l'intérieur des terres) ou océanites (nom donné par les naturalistes en référence aux Océanides)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Hydrobatidae (hydrobatidés en français) sont une famille d'oiseaux de mer qui comprend une quinzaine d'espèces vivantes de pétrels-tempête (de fortes tempêtes déplacent des individus jusqu'à l'intérieur des terres) ou océanites (nom donné par les naturalistes en référence aux Océanides).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Appellations surnominales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Réputés annonciateurs de tempêtes, ils se font surnommer dans plusieurs langues « satanites », « sataniques des voyageurs » ; « labous-an-amzer-fall » (l'oiseau du mauvais temps en breton)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Réputés annonciateurs de tempêtes, ils se font surnommer dans plusieurs langues « satanites », « sataniques des voyageurs » ; « labous-an-amzer-fall » (l'oiseau du mauvais temps en breton).
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les hydrobatidés sont de petits oiseaux (de 13 à 26 cm) et légers. Leur bec porte des narines tubulaires. Ils ont soit les pattes longues et les ailes arrondies, soit des pattes plus courtes et des ailes plus pointues.[réf. nécessaire]
 Ils sont surtout pélagiques et cosmopolites, on les trouve sur tous les océans.
@@ -577,14 +593,88 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Classification
-Traditionnellement considérés comme une famille à part entière, les Hydrobatidae étaient considérés dans la phylogénie de Sibley, comme la sous-famille Hydrobatinae des Procellariidés. Cette vision ne fait plus consensus, et depuis version 2.2 de la classification de référence du Congrès ornithologique international, les Hydrobatidae sont de nouveau une famille.
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traditionnellement considérés comme une famille à part entière, les Hydrobatidae étaient considérés dans la phylogénie de Sibley, comme la sous-famille Hydrobatinae des Procellariidés. Cette vision ne fait plus consensus, et depuis version 2.2 de la classification de référence du Congrès ornithologique international, les Hydrobatidae sont de nouveau une famille.
 Plusieurs études, notamment de Penhallurick &amp; Wink (2004) et Hackett et al. (2008), démontrent que les Hydrobatidae et les Oceanitidae ne sont pas des taxons frères. Dans sa classification de référence (version 5.1, 2015), le Congrès ornithologique international déplace donc les genres Oceanites, Garrodia, Pelagodroma, Fregetta et Nesofregetta (soit un total de neuf espèces) dans une nouvelle famille, les Oceanitidae. Cette nouvelle famille est plus proche de la famille des Diomedeidae que de celle des Hydrobatidae.
-Liste alphabétique des genres
-Hydrobates Boie, 1822 (1 espèce)
-Oceanodroma Reichenbach, 1853 (15 espèces)
-Liste des espèces
-D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international (ordre phylogénique) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hydrobatidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrobatidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste alphabétique des genres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Hydrobates Boie, 1822 (1 espèce)
+Oceanodroma Reichenbach, 1853 (15 espèces)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hydrobatidae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrobatidae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international (ordre phylogénique) :
 Hydrobates pelagicus – Océanite tempête
 Oceanodroma microsoma – Océanite minute
 Oceanodroma tethys – Océanite téthys
